--- a/Project3/improved_data_5.xlsx
+++ b/Project3/improved_data_5.xlsx
@@ -1,37 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krist\Documents\ComputationalPhysics\Projects\Gruppe\Project3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tore/Documents/2019 høst/Computational-Physics-group/Project3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20F6BD1D-7756-494E-B647-AE2FFBF6326A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC432753-19E2-AF4F-AA19-870C3BD758A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276"/>
+    <workbookView xWindow="780" yWindow="560" windowWidth="27640" windowHeight="16940"/>
   </bookViews>
   <sheets>
     <sheet name="improved_data_5" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
-    <t>AVG</t>
-  </si>
-  <si>
     <t>STD</t>
   </si>
   <si>
-    <t>INT</t>
+    <t>Integral</t>
   </si>
   <si>
-    <t>TIME</t>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Avg</t>
   </si>
 </sst>
 </file>
@@ -40,14 +50,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -85,28 +95,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -114,7 +124,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -122,14 +132,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -137,14 +147,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -152,7 +162,7 @@
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -160,14 +170,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -875,167 +885,167 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>2.8994032579999999E-3</v>
+      </c>
+      <c r="C2">
+        <v>0.187724871131801</v>
+      </c>
+      <c r="D2">
+        <v>1.5781999000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>3.3403043380000001E-3</v>
+      </c>
+      <c r="C3">
+        <v>0.19388673096752801</v>
+      </c>
+      <c r="D3">
+        <v>1.7344765000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>3.2500518859999998E-3</v>
+      </c>
+      <c r="C4">
+        <v>0.196261612238393</v>
+      </c>
+      <c r="D4">
+        <v>2.2620824000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>4.8794550409999998E-3</v>
+      </c>
+      <c r="C5">
+        <v>0.19858926743830499</v>
+      </c>
+      <c r="D5">
+        <v>1.9230463999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>2.8987871209999998E-3</v>
+      </c>
+      <c r="C6">
+        <v>0.192400824296902</v>
+      </c>
+      <c r="D6">
+        <v>1.8501607999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>2.935325092E-3</v>
+      </c>
+      <c r="C7">
+        <v>0.19067335486362799</v>
+      </c>
+      <c r="D7">
+        <v>1.9173651999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>4.8590045530000001E-3</v>
+      </c>
+      <c r="C8">
+        <v>0.19483545816199699</v>
+      </c>
+      <c r="D8">
+        <v>1.7401764E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>2.8850412040000001E-3</v>
+      </c>
+      <c r="C9">
+        <v>0.18923196868686301</v>
+      </c>
+      <c r="D9">
+        <v>1.6570657999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>3.8804531390000002E-3</v>
+      </c>
+      <c r="C10">
+        <v>0.199666340863734</v>
+      </c>
+      <c r="D10">
+        <v>1.9954145999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>3.264038518E-3</v>
+      </c>
+      <c r="C11">
+        <v>0.19658561780689299</v>
+      </c>
+      <c r="D11">
+        <v>1.3647355E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B2">
-        <v>2.9571767079999999E-3</v>
-      </c>
-      <c r="C2">
-        <v>0.19430003653740099</v>
-      </c>
-      <c r="D2">
-        <v>2.2431400000000001E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B3">
-        <v>3.1374049220000001E-3</v>
-      </c>
-      <c r="C3">
-        <v>0.19201255232320399</v>
-      </c>
-      <c r="D3">
-        <v>2.0703200000000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B4">
-        <v>3.0360009119999999E-3</v>
-      </c>
-      <c r="C4">
-        <v>0.18834136651498701</v>
-      </c>
-      <c r="D4">
-        <v>2.3402300000000001E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B5">
-        <v>3.0820530299999998E-3</v>
-      </c>
-      <c r="C5">
-        <v>0.19455110522826799</v>
-      </c>
-      <c r="D5">
-        <v>2.1889100000000002E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B6">
-        <v>2.9671227979999998E-3</v>
-      </c>
-      <c r="C6">
-        <v>0.187512922431636</v>
-      </c>
-      <c r="D6">
-        <v>2.0621899999999999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B7">
-        <v>2.9904466749999998E-3</v>
-      </c>
-      <c r="C7">
-        <v>0.19126542935684901</v>
-      </c>
-      <c r="D7">
-        <v>2.0081600000000002E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B8">
-        <v>3.612030439E-3</v>
-      </c>
-      <c r="C8">
-        <v>0.19705375420549801</v>
-      </c>
-      <c r="D8">
-        <v>2.0140499999999999E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B9">
-        <v>3.021412171E-3</v>
-      </c>
-      <c r="C9">
-        <v>0.19371062605188</v>
-      </c>
-      <c r="D9">
-        <v>2.06543E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B10">
-        <v>2.8514838449999998E-3</v>
-      </c>
-      <c r="C10">
-        <v>0.190749114412884</v>
-      </c>
-      <c r="D10">
-        <v>2.0114099999999999E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B11">
-        <v>3.9585951100000001E-3</v>
-      </c>
-      <c r="C11">
-        <v>0.19652817991160201</v>
-      </c>
-      <c r="D11">
-        <v>2.12579E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>0</v>
       </c>
       <c r="B13">
         <f>AVERAGE(B2:B11)</f>
-        <v>3.1613726610000004E-3</v>
+        <v>3.5091864149999997E-3</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:D13" si="0">AVERAGE(C2:C11)</f>
-        <v>0.1926025086974209</v>
+        <f>AVERAGE(C2:C11)</f>
+        <v>0.19398560464560438</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>2.1129630000000003E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+        <f>AVERAGE(D2:D11)</f>
+        <v>1.8022723499999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14">
-        <f>_xlfn.STDEV.P(B2:B11)</f>
-        <v>3.2947001443433573E-4</v>
+        <f>_xlfn.STDEV.S(B2:B11)</f>
+        <v>7.7864200189282137E-4</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:D14" si="1">_xlfn.STDEV.P(C2:C11)</f>
-        <v>3.0457044415047587E-3</v>
+        <f>_xlfn.STDEV.S(C2:C11)</f>
+        <v>3.9639086689872132E-3</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
-        <v>1.0595517477216491E-3</v>
+        <f>_xlfn.STDEV.S(D2:D11)</f>
+        <v>2.4721545576850009E-3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Project3/improved_data_5.xlsx
+++ b/Project3/improved_data_5.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tore/Documents/2019 høst/Computational-Physics-group/Project3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC432753-19E2-AF4F-AA19-870C3BD758A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFBE88B-CB94-FE43-A51C-3A1D6F52A1A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="560" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="780" yWindow="560" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="improved_data_5" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>STD</t>
   </si>
@@ -43,11 +43,17 @@
   <si>
     <t>Avg</t>
   </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>RMS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -881,137 +887,183 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>2.8994032579999999E-3</v>
       </c>
       <c r="C2">
+        <f>B2^2</f>
+        <v>8.4065392525010145E-6</v>
+      </c>
+      <c r="D2">
         <v>0.187724871131801</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1.5781999000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>3.3403043380000001E-3</v>
       </c>
       <c r="C3">
+        <f t="shared" ref="C3:C11" si="0">B3^2</f>
+        <v>1.1157633070461618E-5</v>
+      </c>
+      <c r="D3">
         <v>0.19388673096752801</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1.7344765000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>3.2500518859999998E-3</v>
       </c>
       <c r="C4">
+        <f t="shared" si="0"/>
+        <v>1.0562837261692157E-5</v>
+      </c>
+      <c r="D4">
         <v>0.196261612238393</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>2.2620824000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>4.8794550409999998E-3</v>
       </c>
       <c r="C5">
+        <f t="shared" si="0"/>
+        <v>2.380908149714031E-5</v>
+      </c>
+      <c r="D5">
         <v>0.19858926743830499</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1.9230463999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>2.8987871209999998E-3</v>
       </c>
       <c r="C6">
+        <f t="shared" si="0"/>
+        <v>8.4029667728754679E-6</v>
+      </c>
+      <c r="D6">
         <v>0.192400824296902</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1.8501607999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>2.935325092E-3</v>
       </c>
       <c r="C7">
+        <f t="shared" si="0"/>
+        <v>8.6161333957248083E-6</v>
+      </c>
+      <c r="D7">
         <v>0.19067335486362799</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1.9173651999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>4.8590045530000001E-3</v>
       </c>
       <c r="C8">
+        <f t="shared" si="0"/>
+        <v>2.3609925246074731E-5</v>
+      </c>
+      <c r="D8">
         <v>0.19483545816199699</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1.7401764E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>2.8850412040000001E-3</v>
       </c>
       <c r="C9">
+        <f t="shared" si="0"/>
+        <v>8.323462748777771E-6</v>
+      </c>
+      <c r="D9">
         <v>0.18923196868686301</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1.6570657999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>3.8804531390000002E-3</v>
       </c>
       <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1.5057916563974954E-5</v>
+      </c>
+      <c r="D10">
         <v>0.199666340863734</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1.9954145999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>3.264038518E-3</v>
       </c>
       <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1.0653947446987636E-5</v>
+      </c>
+      <c r="D11">
         <v>0.19658561780689299</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1.3647355E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1021,28 +1073,37 @@
       </c>
       <c r="C13">
         <f>AVERAGE(C2:C11)</f>
-        <v>0.19398560464560438</v>
+        <v>1.2860044325621045E-5</v>
       </c>
       <c r="D13">
         <f>AVERAGE(D2:D11)</f>
+        <v>0.19398560464560438</v>
+      </c>
+      <c r="E13">
+        <f>AVERAGE(E2:E11)</f>
         <v>1.8022723499999997E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B14">
-        <f>_xlfn.STDEV.S(B2:B11)</f>
-        <v>7.7864200189282137E-4</v>
-      </c>
-      <c r="C14">
-        <f>_xlfn.STDEV.S(C2:C11)</f>
-        <v>3.9639086689872132E-3</v>
-      </c>
       <c r="D14">
         <f>_xlfn.STDEV.S(D2:D11)</f>
+        <v>3.9639086689872132E-3</v>
+      </c>
+      <c r="E14">
+        <f>_xlfn.STDEV.S(E2:E11)</f>
         <v>2.4721545576850009E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <f>SQRT(C13)</f>
+        <v>3.586090395628789E-3</v>
       </c>
     </row>
   </sheetData>
